--- a/image/Tb_synthese_CISSOKHO_Mamadou.xlsx
+++ b/image/Tb_synthese_CISSOKHO_Mamadou.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyliw\OneDrive\Bureau\école\portofilio_doums\image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzaaaav/Desktop/portfolio/image/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF797399-E977-4408-A3CD-B9FA02D04537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE59FC91-3F03-5A4A-984E-F3527D5513A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$21</definedName>
   </definedNames>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -166,6 +166,36 @@
   <si>
     <t>NOM et prénom : CISSOKHO Mamadou</t>
   </si>
+  <si>
+    <t>”</t>
+  </si>
+  <si>
+    <t>Correction de bugs et maintenance d’un site web</t>
+  </si>
+  <si>
+    <t>Amélioration UX/UI pour améliorer l’ergonomie et le design</t>
+  </si>
+  <si>
+    <t>2 eme année</t>
+  </si>
+  <si>
+    <t>Mise en place d'un système de backup et de sécurisation</t>
+  </si>
+  <si>
+    <t>Tests et validation des fonctionnalités web</t>
+  </si>
+  <si>
+    <t>Création et configuration d'une base de données</t>
+  </si>
+  <si>
+    <t>Automatisation de tâches avec des test (Cypress)</t>
+  </si>
+  <si>
+    <t>Optimisation SEO d'un site web</t>
+  </si>
+  <si>
+    <t>Modification de documents et d’images d’un site web</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -244,7 +274,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -258,6 +288,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -280,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -486,70 +521,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -578,9 +555,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,18 +564,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -629,6 +591,13 @@
     <xf numFmtId="17" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,15 +615,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -742,14 +702,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -787,7 +743,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -893,7 +849,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1035,7 +991,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1046,87 +1002,87 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ36"/>
+  <dimension ref="A1:AMJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="43" width="10.7109375" customWidth="1"/>
-    <col min="44" max="1024" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="70.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="43" width="10.6640625" customWidth="1"/>
+    <col min="44" max="1024" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:13" ht="41.1" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="90" customHeight="1">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1147,10 +1103,13 @@
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="324.95" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
+      <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="325" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1170,322 +1129,205 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="20">
         <v>45566</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="20">
         <v>45597</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="C9" s="11"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="20">
         <v>45536</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="18">
-      <c r="A18" s="27" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" ht="18">
-      <c r="A27" s="27" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="21">
+        <v>45444</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="21">
+        <v>45474</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="34"/>
-    </row>
-    <row r="31" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="1:8" s="8" customFormat="1" ht="15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1494,13 +1336,14 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A11:H11"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1508,15 +1351,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e775a292-087c-446f-80ae-398e2dd8a601">
@@ -1527,7 +1361,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD3224BEC060CB4DBDEBE481B6CCEAE5" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3fc1af5ccce3a095341e9e75c6f13b84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ff027485-2299-40ab-993a-5e910cf15cce" xmlns:ns3="e775a292-087c-446f-80ae-398e2dd8a601" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="163e9dd3aaafb6263783e099de7096ed" ns2:_="" ns3:_="">
     <xsd:import namespace="ff027485-2299-40ab-993a-5e910cf15cce"/>
@@ -1762,15 +1596,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67BBDBF3-B0A8-48FA-922C-E45DCF9C5901}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C1968F-64E3-48D8-B6E7-791A9AB65263}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="e775a292-087c-446f-80ae-398e2dd8a601"/>
@@ -1787,7 +1622,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F93FADD-ED39-4CFF-8138-7386CEF3660E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1804,4 +1639,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67BBDBF3-B0A8-48FA-922C-E45DCF9C5901}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>